--- a/weekList.xlsx
+++ b/weekList.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="230">
   <si>
     <t>rank</t>
   </si>
@@ -79,15 +79,15 @@
     <t>午夜心碎俱乐部2.0</t>
   </si>
   <si>
+    <t>遥远的她(吉他版)</t>
+  </si>
+  <si>
     <t>失眠</t>
   </si>
   <si>
     <t>sexy as from before</t>
   </si>
   <si>
-    <t>中毒</t>
-  </si>
-  <si>
     <t>ＷＡＩＴＩＮＧ</t>
   </si>
   <si>
@@ -100,12 +100,6 @@
     <t>Jocelyn Flores</t>
   </si>
   <si>
-    <t>莫妮卡</t>
-  </si>
-  <si>
-    <t>在你的身边</t>
-  </si>
-  <si>
     <t>所爱</t>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>I'll Be Waiting...</t>
   </si>
   <si>
-    <t>非正常励志歌</t>
-  </si>
-  <si>
     <t>Love Me Like You Do</t>
   </si>
   <si>
@@ -148,49 +139,73 @@
     <t>郑州的生活</t>
   </si>
   <si>
-    <t>Made for Mermaid</t>
-  </si>
-  <si>
-    <t>Sona</t>
-  </si>
-  <si>
-    <t>lady1st</t>
+    <t>追寻你</t>
+  </si>
+  <si>
+    <t>红色高跟鞋 sunflower</t>
   </si>
   <si>
     <t>only look at me 纯享版</t>
   </si>
   <si>
-    <t>十二</t>
-  </si>
-  <si>
-    <t>假面舞会</t>
-  </si>
-  <si>
     <t>是耿耿于怀</t>
   </si>
   <si>
     <t>唱给我的短发女孩</t>
   </si>
   <si>
+    <t>目及皆是你 （温柔版）</t>
+  </si>
+  <si>
     <t>我怀念的-改版</t>
   </si>
   <si>
+    <t>独行侠 + 爱如潮水 + 说散就散 + 他 (原唱：YKEY)</t>
+  </si>
+  <si>
+    <t>No Im Not</t>
+  </si>
+  <si>
     <t>Peaches (Acoustic Ver.)</t>
   </si>
   <si>
-    <t>How to...</t>
+    <t>再见(抖音版)</t>
+  </si>
+  <si>
+    <t>梦想总是遥不可及(抖音完整原版)</t>
+  </si>
+  <si>
+    <t>Always online(温柔男声)</t>
+  </si>
+  <si>
+    <t>不为谁而作的歌(热播版)</t>
+  </si>
+  <si>
+    <t>溯(温柔女声版)</t>
+  </si>
+  <si>
+    <t>想你想你想我(抖音版)</t>
   </si>
   <si>
     <t>还是会想你</t>
   </si>
   <si>
+    <t>意难平（I wanna）</t>
+  </si>
+  <si>
+    <t>红梅妃</t>
+  </si>
+  <si>
     <t>FLOWER✿</t>
   </si>
   <si>
     <t>Leave Me Alone / Calling My Phone</t>
   </si>
   <si>
-    <t>唯一</t>
+    <t>江南(抖音版)</t>
+  </si>
+  <si>
+    <t>多幸运</t>
   </si>
   <si>
     <t>别说不堪</t>
@@ -199,33 +214,30 @@
     <t>Turns</t>
   </si>
   <si>
+    <t>终于开了口</t>
+  </si>
+  <si>
     <t>你好不好</t>
   </si>
   <si>
     <t>若是没有身份吃醋都要把握分寸</t>
   </si>
   <si>
+    <t>南下</t>
+  </si>
+  <si>
     <t>梦游</t>
   </si>
   <si>
-    <t>梵高曾经对我说</t>
-  </si>
-  <si>
-    <t>Hindenburg Lover</t>
-  </si>
-  <si>
-    <t>放肆爱</t>
-  </si>
-  <si>
-    <t>所以你睡了没</t>
-  </si>
-  <si>
     <t>温热蝙蝠日记Acoustic</t>
   </si>
   <si>
     <t>呓语</t>
   </si>
   <si>
+    <t>我爱你</t>
+  </si>
+  <si>
     <t>0318呓语(1)</t>
   </si>
   <si>
@@ -238,25 +250,31 @@
     <t>红豆</t>
   </si>
   <si>
-    <t>想去海边</t>
-  </si>
-  <si>
     <t>门没锁</t>
   </si>
   <si>
+    <t>不再联系</t>
+  </si>
+  <si>
+    <t>忽然之间</t>
+  </si>
+  <si>
     <t>没有理由</t>
   </si>
   <si>
     <t>把回忆拼好给你</t>
   </si>
   <si>
+    <t>歌名未定</t>
+  </si>
+  <si>
     <t>梦醒</t>
   </si>
   <si>
-    <t>你应该很快乐</t>
-  </si>
-  <si>
-    <t>后继者</t>
+    <t>有风</t>
+  </si>
+  <si>
+    <t>新鲜感现场版</t>
   </si>
   <si>
     <t>the remedy for a broken heart (why am I so in love)</t>
@@ -265,25 +283,10 @@
     <t>Bleeding Love</t>
   </si>
   <si>
-    <t>Lay Down</t>
-  </si>
-  <si>
-    <t>起床气（Remember Me）</t>
-  </si>
-  <si>
     <t>Say Goodbye</t>
   </si>
   <si>
-    <t>夏日漱石 (Summer Cozy Rock)</t>
-  </si>
-  <si>
-    <t>Alpha</t>
-  </si>
-  <si>
-    <t>有暖气 (You Nuan Chi)</t>
-  </si>
-  <si>
-    <t>真没睡</t>
+    <t>最近</t>
   </si>
   <si>
     <t>我们俩</t>
@@ -298,15 +301,15 @@
     <t>i know you so well</t>
   </si>
   <si>
-    <t>Orange Ocean</t>
+    <t>Whatever</t>
+  </si>
+  <si>
+    <t>跟在你身后</t>
   </si>
   <si>
     <t>狂妄</t>
   </si>
   <si>
-    <t>一路之下</t>
-  </si>
-  <si>
     <t>Get You The Moon</t>
   </si>
   <si>
@@ -364,15 +367,15 @@
     <t>大D(DLyn)</t>
   </si>
   <si>
+    <t>張子铭</t>
+  </si>
+  <si>
     <t>Lil Chaos</t>
   </si>
   <si>
     <t>scaredkrow</t>
   </si>
   <si>
-    <t>光泽</t>
-  </si>
-  <si>
     <t>TRA$H</t>
   </si>
   <si>
@@ -385,12 +388,6 @@
     <t>XXXTENTACION</t>
   </si>
   <si>
-    <t>柳爽</t>
-  </si>
-  <si>
-    <t>盛哲</t>
-  </si>
-  <si>
     <t>曾雪雅</t>
   </si>
   <si>
@@ -403,9 +400,6 @@
     <t>Pearl</t>
   </si>
   <si>
-    <t>齐一</t>
-  </si>
-  <si>
     <t>毛不易</t>
   </si>
   <si>
@@ -421,42 +415,81 @@
     <t>Zyboy忠宇</t>
   </si>
   <si>
-    <t>橘子海 (Orange Ocean)</t>
+    <t>王天戈</t>
+  </si>
+  <si>
+    <t>Eleven</t>
   </si>
   <si>
     <t>Rosie</t>
   </si>
   <si>
-    <t>很美味</t>
-  </si>
-  <si>
     <t>romantic</t>
   </si>
   <si>
     <t>AM阿军</t>
   </si>
   <si>
+    <t>藤柒吖</t>
+  </si>
+  <si>
     <t>艺人 48414645</t>
   </si>
   <si>
+    <t>向来情深</t>
+  </si>
+  <si>
+    <t>八佬Balaw</t>
+  </si>
+  <si>
     <t>Harryan Yoonsoan</t>
   </si>
   <si>
+    <t>花子健</t>
+  </si>
+  <si>
+    <t>潮音老李</t>
+  </si>
+  <si>
+    <t>嘉琪先生</t>
+  </si>
+  <si>
+    <t>南辰Music</t>
+  </si>
+  <si>
+    <t>苏甜</t>
+  </si>
+  <si>
     <t>林达浪</t>
   </si>
   <si>
+    <t>余生哥哥</t>
+  </si>
+  <si>
+    <t>尹昔眠</t>
+  </si>
+  <si>
     <t>Youngior</t>
   </si>
   <si>
     <t>Disciplinaries</t>
   </si>
   <si>
+    <t>无忧</t>
+  </si>
+  <si>
+    <t>陈瑞煜</t>
+  </si>
+  <si>
     <t>程安</t>
   </si>
   <si>
     <t>Lionzed</t>
   </si>
   <si>
+    <t>杨拾叁</t>
+  </si>
+  <si>
     <t>ukakakaxxl</t>
   </si>
   <si>
@@ -466,21 +499,15 @@
     <t>赖仔Morris</t>
   </si>
   <si>
-    <t>Anson Seabra</t>
-  </si>
-  <si>
-    <t>于贞</t>
-  </si>
-  <si>
-    <t>沙一汀EL</t>
-  </si>
-  <si>
     <t>柳戈</t>
   </si>
   <si>
     <t>AKA_wen酱</t>
   </si>
   <si>
+    <t>空匪</t>
+  </si>
+  <si>
     <t>2Clan</t>
   </si>
   <si>
@@ -493,37 +520,40 @@
     <t>陈奕辰Kane</t>
   </si>
   <si>
-    <t>夏日入侵企画</t>
-  </si>
-  <si>
     <t>品冠</t>
   </si>
   <si>
+    <t>明歆悦</t>
+  </si>
+  <si>
+    <t>阿虾</t>
+  </si>
+  <si>
     <t>杨胖雨</t>
   </si>
   <si>
     <t>王贰浪</t>
   </si>
   <si>
+    <t>刘克铭Look Me</t>
+  </si>
+  <si>
     <t>handsome lau</t>
   </si>
   <si>
-    <t>虎二</t>
-  </si>
-  <si>
-    <t>苏晗</t>
+    <t>藤竹京</t>
+  </si>
+  <si>
+    <t>王英涛</t>
   </si>
   <si>
     <t>HEST</t>
   </si>
   <si>
-    <t>Sarah Proctor</t>
-  </si>
-  <si>
     <t>SNØW</t>
   </si>
   <si>
-    <t>姜云升</t>
+    <t>我是张怡啊</t>
   </si>
   <si>
     <t>冲矢昴</t>
@@ -538,6 +568,9 @@
     <t>timmies</t>
   </si>
   <si>
+    <t>Tryone</t>
+  </si>
+  <si>
     <t>桃德李Todd Li</t>
   </si>
   <si>
@@ -562,31 +595,28 @@
     <t>海口记</t>
   </si>
   <si>
+    <t>遥远的她（吉他版）</t>
+  </si>
+  <si>
     <t>No，it's me</t>
   </si>
   <si>
     <t>17</t>
   </si>
   <si>
-    <t>生长</t>
-  </si>
-  <si>
     <t>i hate u i love u (Cover)</t>
   </si>
   <si>
     <t>Cover Sessions, Vol. 4</t>
   </si>
   <si>
-    <t>这个年纪</t>
-  </si>
-  <si>
     <t>声生不息 第1期</t>
   </si>
   <si>
     <t>为你而歌·致敬中国航天</t>
   </si>
   <si>
-    <t>EXCEL</t>
+    <t>爱意随风起，风止意难平</t>
   </si>
   <si>
     <t>风继续吹</t>
@@ -595,19 +625,46 @@
     <t>我的女孩</t>
   </si>
   <si>
+    <t>目及皆是你</t>
+  </si>
+  <si>
     <t>我怀念的改版</t>
   </si>
   <si>
+    <t>独行</t>
+  </si>
+  <si>
+    <t>八佬balaw合辑</t>
+  </si>
+  <si>
     <t>Harryan Yoonsoan Cover Playlist 1 (Acoustic Ver.)</t>
   </si>
   <si>
-    <t>How to…</t>
+    <t>失去与拥有都由不得我</t>
+  </si>
+  <si>
+    <t>可是你要我怎样忘记你</t>
+  </si>
+  <si>
+    <t>温柔治愈热歌</t>
+  </si>
+  <si>
+    <t>辰兮</t>
+  </si>
+  <si>
+    <t>你还是那么丧</t>
+  </si>
+  <si>
+    <t>意难平(demo)（I wanna）</t>
   </si>
   <si>
     <t>FLOWER</t>
   </si>
   <si>
-    <t>运气来得若有似无</t>
+    <t>江南</t>
+  </si>
+  <si>
+    <t>情人劫</t>
   </si>
   <si>
     <t>若是没有身份吃醋都要把我分寸</t>
@@ -619,22 +676,31 @@
     <t>呓语&amp;当你</t>
   </si>
   <si>
-    <t>忽然之间</t>
+    <t>路上呢</t>
+  </si>
+  <si>
+    <t>《歌名未定》</t>
+  </si>
+  <si>
+    <t>死神凝望</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>? (Deluxe)</t>
   </si>
   <si>
-    <t>浪潮上岸 (Tears In Ocean)</t>
-  </si>
-  <si>
     <t>1+1=2</t>
   </si>
   <si>
     <t>Honesty(cover)</t>
   </si>
   <si>
-    <t>未·LIVE</t>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>追光者</t>
   </si>
   <si>
     <t>AWAKE Vol. 1.5</t>
@@ -995,7 +1061,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1029,10 +1095,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1046,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -1063,7 +1129,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1080,10 +1146,10 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1097,7 +1163,7 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
         <v>9</v>
@@ -1114,7 +1180,7 @@
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
         <v>10</v>
@@ -1131,7 +1197,7 @@
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -1148,10 +1214,10 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1165,7 +1231,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1182,7 +1248,7 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>14</v>
@@ -1199,7 +1265,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E12" t="s">
         <v>15</v>
@@ -1216,7 +1282,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -1233,10 +1299,10 @@
         <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1250,10 +1316,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1267,7 +1333,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
         <v>19</v>
@@ -1284,7 +1350,7 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
@@ -1295,16 +1361,16 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>553817982</v>
+        <v>557095893</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1312,13 +1378,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>551339267</v>
+        <v>553817982</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -1329,13 +1395,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>528272229</v>
+        <v>551339267</v>
       </c>
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E20" t="s">
         <v>23</v>
@@ -1352,7 +1418,7 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -1369,7 +1435,7 @@
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>25</v>
@@ -1386,10 +1452,10 @@
         <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1403,10 +1469,10 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1414,16 +1480,16 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>486999661</v>
+        <v>446154100</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1431,16 +1497,16 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>475479888</v>
+        <v>444356814</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1448,16 +1514,16 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>446154100</v>
+        <v>440403866</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E27" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1465,7 +1531,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>444356814</v>
+        <v>440403855</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
@@ -1474,7 +1540,7 @@
         <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1482,7 +1548,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>440403866</v>
+        <v>404184492</v>
       </c>
       <c r="C29" t="s">
         <v>32</v>
@@ -1491,7 +1557,7 @@
         <v>127</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1499,16 +1565,16 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>440403855</v>
+        <v>34828457</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1516,7 +1582,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>404184492</v>
+        <v>1940770243</v>
       </c>
       <c r="C31" t="s">
         <v>34</v>
@@ -1525,7 +1591,7 @@
         <v>128</v>
       </c>
       <c r="E31" t="s">
-        <v>34</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1533,7 +1599,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>35678973</v>
+        <v>1940359497</v>
       </c>
       <c r="C32" t="s">
         <v>35</v>
@@ -1542,7 +1608,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1550,16 +1616,16 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>34828457</v>
+        <v>1940291798</v>
       </c>
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1567,16 +1633,16 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1940770243</v>
+        <v>1938306786</v>
       </c>
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E34" t="s">
-        <v>188</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1584,16 +1650,16 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1940359497</v>
+        <v>1923502284</v>
       </c>
       <c r="C35" t="s">
         <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E35" t="s">
-        <v>189</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1601,7 +1667,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1940291798</v>
+        <v>1922919268</v>
       </c>
       <c r="C36" t="s">
         <v>39</v>
@@ -1618,13 +1684,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1938306786</v>
+        <v>1919868796</v>
       </c>
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" t="s">
         <v>40</v>
@@ -1635,13 +1701,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1923502284</v>
+        <v>1912959921</v>
       </c>
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
         <v>41</v>
@@ -1652,7 +1718,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1922919268</v>
+        <v>1887237099</v>
       </c>
       <c r="C39" t="s">
         <v>42</v>
@@ -1661,7 +1727,7 @@
         <v>134</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1669,13 +1735,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1919868796</v>
+        <v>1879616242</v>
       </c>
       <c r="C40" t="s">
         <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E40" t="s">
         <v>43</v>
@@ -1686,16 +1752,16 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1906266117</v>
+        <v>1872930613</v>
       </c>
       <c r="C41" t="s">
         <v>44</v>
       </c>
       <c r="D41" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1703,16 +1769,16 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1906232662</v>
+        <v>1870653196</v>
       </c>
       <c r="C42" t="s">
         <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1720,16 +1786,16 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1906232661</v>
+        <v>1865730361</v>
       </c>
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1737,16 +1803,16 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1879616242</v>
+        <v>1865217232</v>
       </c>
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1754,16 +1820,16 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1878698259</v>
+        <v>1854902400</v>
       </c>
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1771,16 +1837,16 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1875941511</v>
+        <v>1852326488</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1788,16 +1854,16 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1872930613</v>
+        <v>1840198276</v>
       </c>
       <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1805,16 +1871,16 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1870653196</v>
+        <v>1831487425</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1822,16 +1888,16 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1865217232</v>
+        <v>1831481668</v>
       </c>
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E49" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1839,16 +1905,16 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1840198276</v>
+        <v>1831467368</v>
       </c>
       <c r="C50" t="s">
         <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E50" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1856,16 +1922,16 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1833848187</v>
+        <v>1831460111</v>
       </c>
       <c r="C51" t="s">
         <v>54</v>
       </c>
       <c r="D51" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1873,16 +1939,16 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1827600686</v>
+        <v>1831459551</v>
       </c>
       <c r="C52" t="s">
         <v>55</v>
       </c>
       <c r="D52" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1890,16 +1956,16 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1815068457</v>
+        <v>1830753420</v>
       </c>
       <c r="C53" t="s">
         <v>56</v>
       </c>
       <c r="D53" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E53" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1907,13 +1973,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1809938285</v>
+        <v>1827600686</v>
       </c>
       <c r="C54" t="s">
         <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E54" t="s">
         <v>57</v>
@@ -1924,16 +1990,16 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1807799505</v>
+        <v>1823574355</v>
       </c>
       <c r="C55" t="s">
         <v>58</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="E55" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1941,13 +2007,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1488403784</v>
+        <v>1818335369</v>
       </c>
       <c r="C56" t="s">
         <v>59</v>
       </c>
       <c r="D56" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E56" t="s">
         <v>59</v>
@@ -1958,16 +2024,16 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1486316620</v>
+        <v>1815068457</v>
       </c>
       <c r="C57" t="s">
         <v>60</v>
       </c>
       <c r="D57" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1975,13 +2041,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1476879471</v>
+        <v>1809938285</v>
       </c>
       <c r="C58" t="s">
         <v>61</v>
       </c>
       <c r="D58" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E58" t="s">
         <v>61</v>
@@ -1992,16 +2058,16 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1475436266</v>
+        <v>1805088422</v>
       </c>
       <c r="C59" t="s">
         <v>62</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E59" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2009,16 +2075,16 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1465292956</v>
+        <v>1490240062</v>
       </c>
       <c r="C60" t="s">
         <v>63</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2026,13 +2092,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1462913210</v>
+        <v>1488403784</v>
       </c>
       <c r="C61" t="s">
         <v>64</v>
       </c>
       <c r="D61" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="E61" t="s">
         <v>64</v>
@@ -2043,13 +2109,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1458717405</v>
+        <v>1486316620</v>
       </c>
       <c r="C62" t="s">
         <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
         <v>65</v>
@@ -2060,13 +2126,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1450718554</v>
+        <v>1484874915</v>
       </c>
       <c r="C63" t="s">
         <v>66</v>
       </c>
       <c r="D63" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E63" t="s">
         <v>66</v>
@@ -2077,13 +2143,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1449416890</v>
+        <v>1476879471</v>
       </c>
       <c r="C64" t="s">
         <v>67</v>
       </c>
       <c r="D64" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
         <v>67</v>
@@ -2094,16 +2160,16 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1444242241</v>
+        <v>1475436266</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
       </c>
       <c r="D65" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2111,16 +2177,16 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1443101955</v>
+        <v>1467794293</v>
       </c>
       <c r="C66" t="s">
         <v>69</v>
       </c>
       <c r="D66" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>200</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2128,16 +2194,16 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>1432178626</v>
+        <v>1465292956</v>
       </c>
       <c r="C67" t="s">
         <v>70</v>
       </c>
       <c r="D67" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2145,16 +2211,16 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>1421716072</v>
+        <v>1444242241</v>
       </c>
       <c r="C68" t="s">
         <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2162,16 +2228,16 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>1419457616</v>
+        <v>1443101955</v>
       </c>
       <c r="C69" t="s">
         <v>72</v>
       </c>
       <c r="D69" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>219</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2179,16 +2245,16 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>1418880409</v>
+        <v>1438055667</v>
       </c>
       <c r="C70" t="s">
         <v>73</v>
       </c>
       <c r="D70" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>220</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2196,16 +2262,16 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>1413863166</v>
+        <v>1432178626</v>
       </c>
       <c r="C71" t="s">
         <v>74</v>
       </c>
       <c r="D71" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E71" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2213,16 +2279,16 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>141290</v>
+        <v>1421716072</v>
       </c>
       <c r="C72" t="s">
         <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2230,13 +2296,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>1404906595</v>
+        <v>1419457616</v>
       </c>
       <c r="C73" t="s">
         <v>76</v>
       </c>
       <c r="D73" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E73" t="s">
         <v>76</v>
@@ -2247,13 +2313,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>1403318151</v>
+        <v>1418880409</v>
       </c>
       <c r="C74" t="s">
         <v>77</v>
       </c>
       <c r="D74" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="E74" t="s">
         <v>77</v>
@@ -2264,13 +2330,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>1395222212</v>
+        <v>141290</v>
       </c>
       <c r="C75" t="s">
         <v>78</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="E75" t="s">
         <v>78</v>
@@ -2281,13 +2347,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>1394963332</v>
+        <v>1408795316</v>
       </c>
       <c r="C76" t="s">
         <v>79</v>
       </c>
       <c r="D76" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="E76" t="s">
         <v>79</v>
@@ -2298,13 +2364,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>1391101614</v>
+        <v>1406432116</v>
       </c>
       <c r="C77" t="s">
         <v>80</v>
       </c>
       <c r="D77" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="E77" t="s">
         <v>80</v>
@@ -2315,16 +2381,16 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>1388961671</v>
+        <v>1404906595</v>
       </c>
       <c r="C78" t="s">
         <v>81</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>202</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2332,13 +2398,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>1388433823</v>
+        <v>1403318151</v>
       </c>
       <c r="C79" t="s">
         <v>82</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E79" t="s">
         <v>82</v>
@@ -2349,16 +2415,16 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>1387537788</v>
+        <v>1401412179</v>
       </c>
       <c r="C80" t="s">
         <v>83</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E80" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2366,16 +2432,16 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>1383943253</v>
+        <v>1395222212</v>
       </c>
       <c r="C81" t="s">
         <v>84</v>
       </c>
       <c r="D81" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="E81" t="s">
-        <v>203</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2383,16 +2449,16 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>1374413287</v>
+        <v>1393093998</v>
       </c>
       <c r="C82" t="s">
         <v>85</v>
       </c>
       <c r="D82" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="E82" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2400,16 +2466,16 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>1359818052</v>
+        <v>1392627499</v>
       </c>
       <c r="C83" t="s">
         <v>86</v>
       </c>
       <c r="D83" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="E83" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2417,16 +2483,16 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>1359815265</v>
+        <v>1388961671</v>
       </c>
       <c r="C84" t="s">
         <v>87</v>
       </c>
       <c r="D84" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E84" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2434,16 +2500,16 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>1359815264</v>
+        <v>1388433823</v>
       </c>
       <c r="C85" t="s">
         <v>88</v>
       </c>
       <c r="D85" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="E85" t="s">
-        <v>203</v>
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2451,13 +2517,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>1358276770</v>
+        <v>1374413287</v>
       </c>
       <c r="C86" t="s">
         <v>89</v>
       </c>
       <c r="D86" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E86" t="s">
         <v>89</v>
@@ -2468,16 +2534,16 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>1355757673</v>
+        <v>1360892929</v>
       </c>
       <c r="C87" t="s">
         <v>90</v>
       </c>
       <c r="D87" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E87" t="s">
-        <v>204</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2485,16 +2551,16 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>1352912738</v>
+        <v>1355757673</v>
       </c>
       <c r="C88" t="s">
         <v>91</v>
       </c>
       <c r="D88" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E88" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2502,16 +2568,16 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>1351743204</v>
+        <v>1352912738</v>
       </c>
       <c r="C89" t="s">
         <v>92</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="E89" t="s">
-        <v>92</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2519,13 +2585,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>1336864842</v>
+        <v>1351743204</v>
       </c>
       <c r="C90" t="s">
         <v>93</v>
       </c>
       <c r="D90" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E90" t="s">
         <v>93</v>
@@ -2536,16 +2602,16 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1331157283</v>
+        <v>1336864842</v>
       </c>
       <c r="C91" t="s">
         <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="E91" t="s">
-        <v>203</v>
+        <v>94</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2553,16 +2619,16 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>1318933384</v>
+        <v>1333938610</v>
       </c>
       <c r="C92" t="s">
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E92" t="s">
-        <v>95</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2570,16 +2636,16 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>1317494309</v>
+        <v>1329976449</v>
       </c>
       <c r="C93" t="s">
         <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="E93" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2587,13 +2653,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>1315698167</v>
+        <v>1318933384</v>
       </c>
       <c r="C94" t="s">
         <v>97</v>
       </c>
       <c r="D94" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E94" t="s">
         <v>97</v>
@@ -2604,13 +2670,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1299563528</v>
+        <v>1315698167</v>
       </c>
       <c r="C95" t="s">
         <v>98</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E95" t="s">
         <v>98</v>
@@ -2621,16 +2687,33 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>1296583206</v>
+        <v>1299563528</v>
       </c>
       <c r="C96" t="s">
         <v>99</v>
       </c>
       <c r="D96" t="s">
-        <v>119</v>
+        <v>187</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>1296583206</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
